--- a/FERT_results.xlsx
+++ b/FERT_results.xlsx
@@ -3482,20 +3482,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -6764,17 +6751,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$C1=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6834,7 +6821,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>285</v>
       </c>
       <c r="H2" t="s">
@@ -6845,7 +6832,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -6874,7 +6861,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
@@ -6885,7 +6872,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>292</v>
       </c>
       <c r="H5" t="s">
@@ -6896,7 +6883,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -6925,7 +6912,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
@@ -6936,7 +6923,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
       <c r="H8" t="s">
@@ -6947,7 +6934,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
@@ -6976,7 +6963,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
@@ -6987,7 +6974,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>304</v>
       </c>
       <c r="H11" t="s">
@@ -6998,7 +6985,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -7024,7 +7011,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
@@ -7035,7 +7022,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H14" t="s">
@@ -7046,7 +7033,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -7075,7 +7062,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -7104,7 +7091,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
@@ -7115,7 +7102,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>309</v>
       </c>
       <c r="H18" t="s">
@@ -7126,7 +7113,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
@@ -7152,7 +7139,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
@@ -7163,7 +7150,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H21" t="s">
@@ -7174,7 +7161,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
@@ -7203,7 +7190,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
@@ -7214,7 +7201,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H24" t="s">
@@ -7225,7 +7212,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
@@ -7254,7 +7241,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
@@ -7283,7 +7270,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
@@ -7294,7 +7281,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>320</v>
       </c>
       <c r="H28" t="s">
@@ -7305,7 +7292,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
@@ -7334,7 +7321,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
@@ -7345,7 +7332,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
       <c r="H31" t="s">
@@ -7356,7 +7343,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
@@ -7385,7 +7372,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
@@ -7396,7 +7383,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>331</v>
       </c>
       <c r="H34" t="s">
@@ -7407,7 +7394,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
@@ -7436,7 +7423,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
@@ -7447,7 +7434,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>336</v>
       </c>
       <c r="H37" t="s">
@@ -7458,7 +7445,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
@@ -7487,7 +7474,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H39" t="s">
@@ -7498,7 +7485,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>342</v>
       </c>
       <c r="H40" t="s">
@@ -7509,7 +7496,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
@@ -7538,7 +7525,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H42" t="s">
@@ -7549,7 +7536,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H43" t="s">
@@ -7560,7 +7547,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
@@ -7586,7 +7573,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H45" t="s">
@@ -7597,7 +7584,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>353</v>
       </c>
       <c r="H46" t="s">
@@ -7608,7 +7595,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
@@ -7634,7 +7621,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
@@ -7645,7 +7632,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>358</v>
       </c>
       <c r="H49" t="s">
@@ -7656,7 +7643,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
@@ -7682,7 +7669,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
@@ -7693,7 +7680,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>363</v>
       </c>
       <c r="H52" t="s">
@@ -7704,7 +7691,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
@@ -7733,7 +7720,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H54" t="s">
@@ -7744,7 +7731,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>369</v>
       </c>
       <c r="H55" t="s">
@@ -7755,7 +7742,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
@@ -7781,7 +7768,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H57" t="s">
@@ -7792,7 +7779,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>374</v>
       </c>
       <c r="H58" t="s">
@@ -7803,7 +7790,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
@@ -7829,7 +7816,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H60" t="s">
@@ -7840,7 +7827,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>379</v>
       </c>
       <c r="H61" t="s">
@@ -7851,7 +7838,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
@@ -7880,7 +7867,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H63" t="s">
@@ -7891,7 +7878,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>383</v>
       </c>
       <c r="H64" t="s">
@@ -7902,7 +7889,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
@@ -7928,7 +7915,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H66" t="s">
@@ -7939,7 +7926,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H67" t="s">
@@ -7950,7 +7937,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
@@ -7979,7 +7966,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
@@ -8008,7 +7995,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
@@ -8037,7 +8024,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
@@ -8066,7 +8053,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H72" t="s">
@@ -8077,7 +8064,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H73" t="s">
@@ -8088,7 +8075,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
@@ -8114,7 +8101,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
@@ -8140,7 +8127,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
@@ -8151,7 +8138,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>387</v>
       </c>
       <c r="H77" t="s">
@@ -8162,7 +8149,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
@@ -8191,7 +8178,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H79" t="s">
@@ -8202,7 +8189,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>392</v>
       </c>
       <c r="H80" t="s">
@@ -8213,7 +8200,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
@@ -8242,7 +8229,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
@@ -8253,7 +8240,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>397</v>
       </c>
       <c r="H83" t="s">
@@ -8264,7 +8251,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
@@ -8290,7 +8277,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
@@ -8301,7 +8288,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H86" t="s">
@@ -8312,7 +8299,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
@@ -8341,7 +8328,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
@@ -8370,7 +8357,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
@@ -8399,7 +8386,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H90" t="s">
@@ -8410,7 +8397,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
       <c r="H91" t="s">
@@ -8421,7 +8408,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B92" t="s">
@@ -8450,7 +8437,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
@@ -8461,7 +8448,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H94" t="s">
@@ -8472,7 +8459,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B95" t="s">
@@ -8501,7 +8488,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B96" t="s">
@@ -8530,7 +8517,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H97" t="s">
@@ -8541,7 +8528,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>407</v>
       </c>
       <c r="H98" t="s">
@@ -8552,7 +8539,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B99" t="s">
@@ -8581,7 +8568,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H100" t="s">
@@ -8592,7 +8579,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>412</v>
       </c>
       <c r="H101" t="s">
@@ -8603,7 +8590,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B102" t="s">
@@ -8632,7 +8619,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H103" t="s">
@@ -8643,7 +8630,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H104" t="s">
@@ -8654,7 +8641,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
@@ -8683,7 +8670,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B106" t="s">
@@ -8712,7 +8699,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H107" t="s">
@@ -8723,7 +8710,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>417</v>
       </c>
       <c r="H108" t="s">
@@ -8734,7 +8721,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B109" t="s">
@@ -8763,7 +8750,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H110" t="s">
@@ -8774,7 +8761,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>422</v>
       </c>
       <c r="H111" t="s">
@@ -8785,7 +8772,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B112" t="s">
@@ -8814,7 +8801,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H113" t="s">
@@ -8825,7 +8812,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>428</v>
       </c>
       <c r="H114" t="s">
@@ -8836,7 +8823,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B115" t="s">
@@ -8862,7 +8849,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H116" t="s">
@@ -8873,7 +8860,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>433</v>
       </c>
       <c r="H117" t="s">
@@ -8884,7 +8871,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B118" t="s">
@@ -8910,7 +8897,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H119" t="s">
@@ -8921,7 +8908,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H120" t="s">
@@ -8932,7 +8919,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B121" t="s">
@@ -8961,7 +8948,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B122" t="s">
@@ -8990,7 +8977,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H123" t="s">
@@ -9001,7 +8988,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>437</v>
       </c>
       <c r="H124" t="s">
@@ -9012,7 +8999,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B125" t="s">
@@ -9041,7 +9028,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H126" t="s">
@@ -9052,7 +9039,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>442</v>
       </c>
       <c r="H127" t="s">
@@ -9063,7 +9050,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B128" t="s">
@@ -9092,7 +9079,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H129" t="s">
@@ -9103,7 +9090,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>447</v>
       </c>
       <c r="H130" t="s">
@@ -9114,7 +9101,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B131" t="s">
@@ -9143,7 +9130,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H132" t="s">
@@ -9154,7 +9141,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>452</v>
       </c>
       <c r="H133" t="s">
@@ -9165,7 +9152,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B134" t="s">
@@ -9194,7 +9181,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
@@ -9205,7 +9192,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>457</v>
       </c>
       <c r="H136" t="s">
@@ -9216,7 +9203,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B137" t="s">
@@ -9245,7 +9232,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H138" t="s">
@@ -9256,7 +9243,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>462</v>
       </c>
       <c r="H139" t="s">
@@ -9267,7 +9254,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B140" t="s">
@@ -9296,7 +9283,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H141" t="s">
@@ -9307,7 +9294,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>467</v>
       </c>
       <c r="H142" t="s">
@@ -9318,7 +9305,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B143" t="s">
@@ -9347,7 +9334,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H144" t="s">
@@ -9358,7 +9345,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H145" t="s">
@@ -9369,7 +9356,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B146" t="s">
@@ -9398,7 +9385,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B147" t="s">
@@ -9427,7 +9414,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H148" t="s">
@@ -9438,7 +9425,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>472</v>
       </c>
       <c r="H149" t="s">
@@ -9449,7 +9436,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B150" t="s">
@@ -9478,7 +9465,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H151" t="s">
@@ -9489,7 +9476,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>477</v>
       </c>
       <c r="H152" t="s">
@@ -9500,7 +9487,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B153" t="s">
@@ -9529,7 +9516,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H154" t="s">
@@ -9540,7 +9527,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>482</v>
       </c>
       <c r="H155" t="s">
@@ -9551,7 +9538,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B156" t="s">
@@ -9580,7 +9567,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H157" t="s">
@@ -9591,7 +9578,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H158" t="s">
@@ -9602,7 +9589,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B159" t="s">
@@ -9631,7 +9618,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B160" t="s">
@@ -9660,7 +9647,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H161" t="s">
@@ -9671,7 +9658,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H162" t="s">
@@ -9682,7 +9669,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B163" t="s">
@@ -9708,7 +9695,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B164" t="s">
@@ -9734,7 +9721,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H165" t="s">
@@ -9745,7 +9732,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H166" t="s">
@@ -9756,7 +9743,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B167" t="s">
@@ -9782,7 +9769,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B168" t="s">
@@ -9808,7 +9795,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B169" t="s">
@@ -9834,7 +9821,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H170" t="s">
@@ -9845,7 +9832,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>487</v>
       </c>
       <c r="H171" t="s">
@@ -9856,7 +9843,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B172" t="s">
@@ -9885,7 +9872,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H173" t="s">
@@ -9896,7 +9883,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H174" t="s">
@@ -9907,7 +9894,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B175" t="s">
@@ -9936,7 +9923,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B176" t="s">
@@ -9965,7 +9952,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H177" t="s">
@@ -9976,7 +9963,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H178" t="s">
@@ -9987,7 +9974,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B179" t="s">
@@ -10013,7 +10000,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B180" t="s">
@@ -10039,7 +10026,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H181" t="s">
@@ -10050,7 +10037,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H182" t="s">
@@ -10061,7 +10048,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B183" t="s">
@@ -10087,7 +10074,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B184" t="s">
@@ -10113,7 +10100,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B185" t="s">
@@ -10139,7 +10126,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H186" t="s">
@@ -10150,7 +10137,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>139</v>
       </c>
       <c r="H187" t="s">
@@ -10161,7 +10148,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B188" t="s">
@@ -10190,7 +10177,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B189" t="s">
@@ -10219,7 +10206,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H190" t="s">
@@ -10230,7 +10217,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>146</v>
       </c>
       <c r="H191" t="s">
@@ -10241,7 +10228,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B192" t="s">
@@ -10267,7 +10254,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B193" t="s">
@@ -10293,7 +10280,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H194" t="s">
@@ -10304,7 +10291,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>153</v>
       </c>
       <c r="H195" t="s">
@@ -10315,7 +10302,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B196" t="s">
@@ -10341,7 +10328,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B197" t="s">
@@ -10367,7 +10354,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B198" t="s">
@@ -10393,7 +10380,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H199" t="s">
@@ -10404,7 +10391,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>161</v>
       </c>
       <c r="H200" t="s">
@@ -10415,7 +10402,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B201" t="s">
@@ -10441,7 +10428,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B202" t="s">
@@ -10467,7 +10454,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B203" t="s">
@@ -10493,7 +10480,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H204" t="s">
@@ -10504,7 +10491,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H205" t="s">
@@ -10515,7 +10502,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B206" t="s">
@@ -10541,7 +10528,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B207" t="s">
@@ -10567,7 +10554,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B208" t="s">
@@ -10593,7 +10580,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H209" t="s">
@@ -10604,7 +10591,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>179</v>
       </c>
       <c r="H210" t="s">
@@ -10615,7 +10602,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B211" t="s">
@@ -10641,7 +10628,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B212" t="s">
@@ -10667,7 +10654,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B213" t="s">
@@ -10693,7 +10680,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B214" t="s">
@@ -10719,7 +10706,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B215" t="s">
@@ -10745,7 +10732,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H216" t="s">
@@ -10756,7 +10743,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>192</v>
       </c>
       <c r="H217" t="s">
@@ -10767,7 +10754,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B218" t="s">
@@ -10793,7 +10780,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B219" t="s">
@@ -10819,7 +10806,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H220" t="s">
@@ -10830,7 +10817,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H221" t="s">
@@ -10841,7 +10828,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B222" t="s">
@@ -10867,7 +10854,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B223" t="s">
@@ -10893,7 +10880,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H224" t="s">
@@ -10904,7 +10891,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>492</v>
       </c>
       <c r="H225" t="s">
@@ -10915,7 +10902,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B226" t="s">
@@ -10941,7 +10928,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H227" t="s">
@@ -10952,7 +10939,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>497</v>
       </c>
       <c r="H228" t="s">
@@ -10963,7 +10950,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B229" t="s">
@@ -10989,7 +10976,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H230" t="s">
@@ -11000,7 +10987,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>502</v>
       </c>
       <c r="H231" t="s">
@@ -11011,7 +10998,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B232" t="s">
@@ -11037,7 +11024,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H233" t="s">
@@ -11048,7 +11035,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>507</v>
       </c>
       <c r="H234" t="s">
@@ -11059,7 +11046,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B235" t="s">
@@ -11088,7 +11075,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H236" t="s">
@@ -11099,7 +11086,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>513</v>
       </c>
       <c r="H237" t="s">
@@ -11110,7 +11097,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B238" t="s">
@@ -11136,7 +11123,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H239" t="s">
@@ -11147,7 +11134,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>207</v>
       </c>
       <c r="H240" t="s">
@@ -11158,7 +11145,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B241" t="s">
@@ -11184,7 +11171,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B242" t="s">
@@ -11210,7 +11197,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H243" t="s">
@@ -11221,7 +11208,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>518</v>
       </c>
       <c r="H244" t="s">
@@ -11232,7 +11219,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B245" t="s">
@@ -11261,7 +11248,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H246" t="s">
@@ -11272,7 +11259,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>523</v>
       </c>
       <c r="H247" t="s">
@@ -11283,7 +11270,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B248" t="s">
@@ -11312,7 +11299,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H249" t="s">
@@ -11323,7 +11310,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="1" t="s">
         <v>528</v>
       </c>
       <c r="H250" t="s">
@@ -11334,7 +11321,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B251" t="s">
@@ -11363,7 +11350,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H252" t="s">
@@ -11374,7 +11361,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>533</v>
       </c>
       <c r="H253" t="s">
@@ -11385,7 +11372,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B254" t="s">
@@ -11414,7 +11401,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H255" t="s">
@@ -11425,7 +11412,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>538</v>
       </c>
       <c r="H256" t="s">
@@ -11436,7 +11423,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B257" t="s">
@@ -11465,7 +11452,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H258" t="s">
@@ -11476,7 +11463,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>543</v>
       </c>
       <c r="H259" t="s">
@@ -11487,7 +11474,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B260" t="s">
@@ -11516,7 +11503,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H261" t="s">
@@ -11527,7 +11514,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>548</v>
       </c>
       <c r="H262" t="s">
@@ -11538,7 +11525,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B263" t="s">
@@ -11567,7 +11554,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H264" t="s">
@@ -11578,7 +11565,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>553</v>
       </c>
       <c r="H265" t="s">
@@ -11589,7 +11576,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B266" t="s">
@@ -11618,7 +11605,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H267" t="s">
@@ -11629,7 +11616,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H268" t="s">
@@ -11640,7 +11627,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B269" t="s">
@@ -11669,7 +11656,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H270" t="s">
@@ -11680,7 +11667,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H271" t="s">
@@ -11691,7 +11678,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B272" t="s">
@@ -11717,7 +11704,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H273" t="s">
@@ -11728,7 +11715,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
       <c r="H274" t="s">
@@ -11739,7 +11726,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B275" t="s">
@@ -11765,7 +11752,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H276" t="s">
@@ -11776,7 +11763,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="1" t="s">
         <v>573</v>
       </c>
       <c r="H277" t="s">
@@ -11787,7 +11774,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B278" t="s">
@@ -11816,7 +11803,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H279" t="s">
@@ -11827,7 +11814,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="1" t="s">
         <v>578</v>
       </c>
       <c r="H280" t="s">
@@ -11838,7 +11825,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B281" t="s">
@@ -11864,7 +11851,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H282" t="s">
@@ -11875,7 +11862,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="1" t="s">
         <v>583</v>
       </c>
       <c r="H283" t="s">
@@ -11886,7 +11873,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B284" t="s">
@@ -11915,7 +11902,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H285" t="s">
@@ -11926,7 +11913,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>588</v>
       </c>
       <c r="H286" t="s">
@@ -11937,7 +11924,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B287" t="s">
@@ -11966,7 +11953,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H288" t="s">
@@ -11977,7 +11964,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>593</v>
       </c>
       <c r="H289" t="s">
@@ -11988,7 +11975,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B290" t="s">
@@ -12017,7 +12004,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H291" t="s">
@@ -12028,7 +12015,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H292" t="s">
@@ -12039,7 +12026,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B293" t="s">
@@ -12068,7 +12055,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H294" t="s">
@@ -12079,7 +12066,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>603</v>
       </c>
       <c r="H295" t="s">
@@ -12090,7 +12077,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B296" t="s">
@@ -12119,7 +12106,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H297" t="s">
@@ -12130,7 +12117,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>608</v>
       </c>
       <c r="H298" t="s">
@@ -12141,7 +12128,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B299" t="s">
@@ -12170,7 +12157,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H300" t="s">
@@ -12181,7 +12168,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="1" t="s">
         <v>613</v>
       </c>
       <c r="H301" t="s">
@@ -12192,7 +12179,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B302" t="s">
@@ -12221,7 +12208,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H303" t="s">
@@ -12232,7 +12219,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="1" t="s">
         <v>618</v>
       </c>
       <c r="H304" t="s">
@@ -12243,7 +12230,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B305" t="s">
@@ -12272,7 +12259,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H306" t="s">
@@ -12283,7 +12270,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>623</v>
       </c>
       <c r="H307" t="s">
@@ -12294,7 +12281,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B308" t="s">
@@ -12323,7 +12310,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H309" t="s">
@@ -12334,7 +12321,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>628</v>
       </c>
       <c r="H310" t="s">
@@ -12345,7 +12332,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B311" t="s">
@@ -12374,7 +12361,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H312" t="s">
@@ -12385,7 +12372,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>633</v>
       </c>
       <c r="H313" t="s">
@@ -12396,7 +12383,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B314" t="s">
@@ -12425,7 +12412,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H315" t="s">
@@ -12436,7 +12423,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>638</v>
       </c>
       <c r="H316" t="s">
@@ -12447,7 +12434,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B317" t="s">
@@ -12476,7 +12463,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H318" t="s">
@@ -12487,7 +12474,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>643</v>
       </c>
       <c r="H319" t="s">
@@ -12498,7 +12485,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B320" t="s">
@@ -12527,7 +12514,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H321" t="s">
@@ -12538,7 +12525,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>648</v>
       </c>
       <c r="H322" t="s">
@@ -12549,7 +12536,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B323" t="s">
@@ -12578,7 +12565,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H324" t="s">
@@ -12589,7 +12576,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>653</v>
       </c>
       <c r="H325" t="s">
@@ -12600,7 +12587,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B326" t="s">
@@ -12629,7 +12616,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H327" t="s">
@@ -12640,7 +12627,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>658</v>
       </c>
       <c r="H328" t="s">
@@ -12651,7 +12638,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B329" t="s">
@@ -12680,7 +12667,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H330" t="s">
@@ -12691,7 +12678,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>663</v>
       </c>
       <c r="H331" t="s">
@@ -12702,7 +12689,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B332" t="s">
@@ -12731,7 +12718,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H333" t="s">
@@ -12742,7 +12729,7 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>668</v>
       </c>
       <c r="H334" t="s">
@@ -12753,7 +12740,7 @@
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B335" t="s">
@@ -12782,7 +12769,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H336" t="s">
@@ -12793,7 +12780,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H337" t="s">
@@ -12804,7 +12791,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B338" t="s">
@@ -12833,7 +12820,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B339" t="s">
@@ -12862,7 +12849,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H340" t="s">
@@ -12873,7 +12860,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>673</v>
       </c>
       <c r="H341" t="s">
@@ -12884,7 +12871,7 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B342" t="s">
@@ -12913,7 +12900,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H343" t="s">
@@ -12924,7 +12911,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>678</v>
       </c>
       <c r="H344" t="s">
@@ -12935,7 +12922,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B345" t="s">
@@ -12964,7 +12951,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H346" t="s">
@@ -12975,7 +12962,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>683</v>
       </c>
       <c r="H347" t="s">
@@ -12986,7 +12973,7 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B348" t="s">
@@ -13015,7 +13002,7 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H349" t="s">
@@ -13026,7 +13013,7 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>688</v>
       </c>
       <c r="H350" t="s">
@@ -13037,7 +13024,7 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B351" t="s">
@@ -13066,7 +13053,7 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H352" t="s">
@@ -13077,7 +13064,7 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>693</v>
       </c>
       <c r="H353" t="s">
@@ -13088,7 +13075,7 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B354" t="s">
@@ -13117,7 +13104,7 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H355" t="s">
@@ -13128,7 +13115,7 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>698</v>
       </c>
       <c r="H356" t="s">
@@ -13139,7 +13126,7 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B357" t="s">
@@ -13168,7 +13155,7 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H358" t="s">
@@ -13179,7 +13166,7 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>703</v>
       </c>
       <c r="H359" t="s">
@@ -13190,7 +13177,7 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B360" t="s">
@@ -13219,7 +13206,7 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H361" t="s">
@@ -13230,7 +13217,7 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>708</v>
       </c>
       <c r="H362" t="s">
@@ -13241,7 +13228,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B363" t="s">
@@ -13270,7 +13257,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H364" t="s">
@@ -13281,7 +13268,7 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>713</v>
       </c>
       <c r="H365" t="s">
@@ -13292,7 +13279,7 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B366" t="s">
@@ -13321,7 +13308,7 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H367" t="s">
@@ -13332,7 +13319,7 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H368" t="s">
@@ -13343,7 +13330,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B369" t="s">
@@ -13372,7 +13359,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B370" t="s">
@@ -13401,7 +13388,7 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H371" t="s">
@@ -13412,7 +13399,7 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>229</v>
       </c>
       <c r="H372" t="s">
@@ -13423,7 +13410,7 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B373" t="s">
@@ -13452,7 +13439,7 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B374" t="s">
@@ -13481,7 +13468,7 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H375" t="s">
@@ -13492,7 +13479,7 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>236</v>
       </c>
       <c r="H376" t="s">
@@ -13503,7 +13490,7 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B377" t="s">
@@ -13532,7 +13519,7 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B378" t="s">
@@ -13561,7 +13548,7 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H379" t="s">
@@ -13572,7 +13559,7 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>718</v>
       </c>
       <c r="H380" t="s">
@@ -13583,7 +13570,7 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B381" t="s">
@@ -13612,7 +13599,7 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H382" t="s">
@@ -13623,7 +13610,7 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>723</v>
       </c>
       <c r="H383" t="s">
@@ -13634,7 +13621,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B384" t="s">
@@ -13663,7 +13650,7 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H385" t="s">
@@ -13674,7 +13661,7 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>728</v>
       </c>
       <c r="H386" t="s">
@@ -13685,7 +13672,7 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B387" t="s">
@@ -13714,7 +13701,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H388" t="s">
@@ -13725,7 +13712,7 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>733</v>
       </c>
       <c r="H389" t="s">
@@ -13736,7 +13723,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B390" t="s">
@@ -13765,7 +13752,7 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H391" t="s">
@@ -13776,7 +13763,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>738</v>
       </c>
       <c r="H392" t="s">
@@ -13787,7 +13774,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B393" t="s">
@@ -13816,7 +13803,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H394" t="s">
@@ -13827,7 +13814,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>743</v>
       </c>
       <c r="H395" t="s">
@@ -13838,7 +13825,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B396" t="s">
@@ -13867,7 +13854,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H397" t="s">
@@ -13878,7 +13865,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>748</v>
       </c>
       <c r="H398" t="s">
@@ -13889,7 +13876,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B399" t="s">
@@ -13918,7 +13905,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H400" t="s">
@@ -13929,7 +13916,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>753</v>
       </c>
       <c r="H401" t="s">
@@ -13940,7 +13927,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B402" t="s">
@@ -13969,7 +13956,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H403" t="s">
@@ -13980,7 +13967,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>758</v>
       </c>
       <c r="H404" t="s">
@@ -13991,7 +13978,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B405" t="s">
@@ -14020,7 +14007,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H406" t="s">
@@ -14031,7 +14018,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>763</v>
       </c>
       <c r="H407" t="s">
@@ -14042,7 +14029,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B408" t="s">
@@ -14071,7 +14058,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H409" t="s">
@@ -14082,7 +14069,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>768</v>
       </c>
       <c r="H410" t="s">
@@ -14093,7 +14080,7 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B411" t="s">
@@ -14122,7 +14109,7 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H412" t="s">
@@ -14133,7 +14120,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>243</v>
       </c>
       <c r="H413" t="s">
@@ -14144,7 +14131,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B414" t="s">
@@ -14173,7 +14160,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B415" t="s">
@@ -14202,7 +14189,7 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H416" t="s">
@@ -14213,7 +14200,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>773</v>
       </c>
       <c r="H417" t="s">
@@ -14224,7 +14211,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B418" t="s">
@@ -14250,7 +14237,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H419" t="s">
@@ -14261,7 +14248,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>778</v>
       </c>
       <c r="H420" t="s">
@@ -14272,7 +14259,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B421" t="s">
@@ -14301,7 +14288,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H422" t="s">
@@ -14312,7 +14299,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>783</v>
       </c>
       <c r="H423" t="s">
@@ -14323,7 +14310,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B424" t="s">
@@ -14352,7 +14339,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H425" t="s">
@@ -14363,7 +14350,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>788</v>
       </c>
       <c r="H426" t="s">
@@ -14374,7 +14361,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B427" t="s">
@@ -14400,7 +14387,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H428" t="s">
@@ -14411,7 +14398,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>793</v>
       </c>
       <c r="H429" t="s">
@@ -14422,7 +14409,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B430" t="s">
@@ -14451,7 +14438,7 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H431" t="s">
@@ -14462,7 +14449,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>797</v>
       </c>
       <c r="H432" t="s">
@@ -14473,7 +14460,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B433" t="s">
@@ -14499,7 +14486,7 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H434" t="s">
@@ -14510,7 +14497,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>802</v>
       </c>
       <c r="H435" t="s">
@@ -14521,7 +14508,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B436" t="s">
@@ -14547,7 +14534,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H437" t="s">
@@ -14558,7 +14545,7 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>250</v>
       </c>
       <c r="H438" t="s">
@@ -14569,7 +14556,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B439" t="s">
@@ -14598,7 +14585,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B440" t="s">
@@ -14627,7 +14614,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B441" t="s">
@@ -14656,7 +14643,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H442" t="s">
@@ -14667,7 +14654,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>806</v>
       </c>
       <c r="H443" t="s">
@@ -14678,7 +14665,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B444" t="s">
@@ -14707,7 +14694,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H445" t="s">
@@ -14718,7 +14705,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>811</v>
       </c>
       <c r="H446" t="s">
@@ -14729,7 +14716,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B447" t="s">
@@ -14758,7 +14745,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H448" t="s">
@@ -14769,7 +14756,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>816</v>
       </c>
       <c r="H449" t="s">
@@ -14780,7 +14767,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B450" t="s">
@@ -14809,7 +14796,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H451" t="s">
@@ -14820,7 +14807,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+      <c r="A452" s="1" t="s">
         <v>821</v>
       </c>
       <c r="H452" t="s">
@@ -14831,7 +14818,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B453" t="s">
@@ -14860,7 +14847,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H454" t="s">
@@ -14871,7 +14858,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>826</v>
       </c>
       <c r="H455" t="s">
@@ -14882,7 +14869,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B456" t="s">
@@ -14911,7 +14898,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H457" t="s">
@@ -14922,7 +14909,7 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>831</v>
       </c>
       <c r="H458" t="s">
@@ -14933,7 +14920,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+      <c r="A459" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B459" t="s">
@@ -14962,7 +14949,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="A460" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H460" t="s">
@@ -14973,7 +14960,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>836</v>
       </c>
       <c r="H461" t="s">
@@ -14984,7 +14971,7 @@
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B462" t="s">
@@ -15013,7 +15000,7 @@
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H463" t="s">
@@ -15024,7 +15011,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>841</v>
       </c>
       <c r="H464" t="s">
@@ -15035,7 +15022,7 @@
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B465" t="s">
@@ -15064,7 +15051,7 @@
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H466" t="s">
@@ -15075,7 +15062,7 @@
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>846</v>
       </c>
       <c r="H467" t="s">
@@ -15086,7 +15073,7 @@
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B468" t="s">
@@ -15115,7 +15102,7 @@
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H469" t="s">
@@ -15126,7 +15113,7 @@
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>851</v>
       </c>
       <c r="H470" t="s">
@@ -15137,7 +15124,7 @@
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B471" t="s">
@@ -15166,7 +15153,7 @@
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H472" t="s">
@@ -15177,7 +15164,7 @@
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="A473" s="1" t="s">
         <v>856</v>
       </c>
       <c r="H473" t="s">
@@ -15188,7 +15175,7 @@
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B474" t="s">
@@ -15217,7 +15204,7 @@
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H475" t="s">
@@ -15228,7 +15215,7 @@
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>861</v>
       </c>
       <c r="H476" t="s">
@@ -15239,7 +15226,7 @@
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B477" t="s">
@@ -15268,7 +15255,7 @@
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H478" t="s">
@@ -15279,7 +15266,7 @@
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>866</v>
       </c>
       <c r="H479" t="s">
@@ -15290,7 +15277,7 @@
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B480" t="s">
@@ -15319,7 +15306,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H481" t="s">
@@ -15330,7 +15317,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>871</v>
       </c>
       <c r="H482" t="s">
@@ -15341,7 +15328,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B483" t="s">
@@ -15370,7 +15357,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H484" t="s">
@@ -15381,7 +15368,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>876</v>
       </c>
       <c r="H485" t="s">
@@ -15392,7 +15379,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B486" t="s">
@@ -15421,7 +15408,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H487" t="s">
@@ -15432,7 +15419,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>881</v>
       </c>
       <c r="H488" t="s">
@@ -15443,7 +15430,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B489" t="s">
@@ -15472,7 +15459,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H490" t="s">
@@ -15483,7 +15470,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>886</v>
       </c>
       <c r="H491" t="s">
@@ -15494,7 +15481,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B492" t="s">
@@ -15523,7 +15510,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H493" t="s">
@@ -15534,7 +15521,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>891</v>
       </c>
       <c r="H494" t="s">
@@ -15545,7 +15532,7 @@
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B495" t="s">
@@ -15574,7 +15561,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H496" t="s">
@@ -15585,7 +15572,7 @@
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>896</v>
       </c>
       <c r="H497" t="s">
@@ -15596,7 +15583,7 @@
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B498" t="s">
@@ -15625,7 +15612,7 @@
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H499" t="s">
@@ -15636,7 +15623,7 @@
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>901</v>
       </c>
       <c r="H500" t="s">
@@ -15647,7 +15634,7 @@
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B501" t="s">
@@ -15676,7 +15663,7 @@
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="A502" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H502" t="s">
@@ -15687,7 +15674,7 @@
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>906</v>
       </c>
       <c r="H503" t="s">
@@ -15698,7 +15685,7 @@
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B504" t="s">
@@ -15724,7 +15711,7 @@
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H505" t="s">
@@ -15735,7 +15722,7 @@
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>911</v>
       </c>
       <c r="H506" t="s">
@@ -15746,7 +15733,7 @@
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B507" t="s">
@@ -15775,7 +15762,7 @@
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H508" t="s">
@@ -15786,7 +15773,7 @@
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>916</v>
       </c>
       <c r="H509" t="s">
@@ -15797,7 +15784,7 @@
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B510" t="s">
@@ -15823,7 +15810,7 @@
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H511" t="s">
@@ -15834,7 +15821,7 @@
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>921</v>
       </c>
       <c r="H512" t="s">
@@ -15845,7 +15832,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B513" t="s">
@@ -15871,7 +15858,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H514" t="s">
@@ -15882,7 +15869,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+      <c r="A515" s="1" t="s">
         <v>926</v>
       </c>
       <c r="H515" t="s">
@@ -15893,7 +15880,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B516" t="s">
@@ -15919,7 +15906,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H517" t="s">
@@ -15930,7 +15917,7 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>259</v>
       </c>
       <c r="H518" t="s">
@@ -15941,7 +15928,7 @@
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B519" t="s">
@@ -15970,7 +15957,7 @@
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B520" t="s">
@@ -15999,7 +15986,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H521" t="s">
@@ -16010,7 +15997,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>930</v>
       </c>
       <c r="H522" t="s">
@@ -16021,7 +16008,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+      <c r="A523" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B523" t="s">
@@ -16050,7 +16037,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H524" t="s">
@@ -16061,7 +16048,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+      <c r="A525" s="1" t="s">
         <v>935</v>
       </c>
       <c r="H525" t="s">
@@ -16072,7 +16059,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+      <c r="A526" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B526" t="s">
@@ -16101,7 +16088,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H527" t="s">
@@ -16112,7 +16099,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="A528" s="1" t="s">
         <v>940</v>
       </c>
       <c r="H528" t="s">
@@ -16123,7 +16110,7 @@
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B529" t="s">
@@ -16152,7 +16139,7 @@
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+      <c r="A530" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H530" t="s">
@@ -16163,7 +16150,7 @@
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>945</v>
       </c>
       <c r="H531" t="s">
@@ -16174,7 +16161,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+      <c r="A532" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B532" t="s">
@@ -16203,7 +16190,7 @@
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+      <c r="A533" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H533" t="s">
@@ -16214,7 +16201,7 @@
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+      <c r="A534" s="1" t="s">
         <v>950</v>
       </c>
       <c r="H534" t="s">
@@ -16225,7 +16212,7 @@
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="A535" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B535" t="s">
@@ -16254,7 +16241,7 @@
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+      <c r="A536" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H536" t="s">
@@ -16265,7 +16252,7 @@
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="A537" s="1" t="s">
         <v>955</v>
       </c>
       <c r="H537" t="s">
@@ -16276,7 +16263,7 @@
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+      <c r="A538" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B538" t="s">
@@ -16305,7 +16292,7 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+      <c r="A539" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H539" t="s">
@@ -16316,7 +16303,7 @@
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+      <c r="A540" s="1" t="s">
         <v>960</v>
       </c>
       <c r="H540" t="s">
@@ -16327,7 +16314,7 @@
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B541" t="s">
@@ -16356,7 +16343,7 @@
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="A542" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H542" t="s">
@@ -16367,7 +16354,7 @@
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>965</v>
       </c>
       <c r="H543" t="s">
@@ -16378,7 +16365,7 @@
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+      <c r="A544" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B544" t="s">
@@ -16407,7 +16394,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+      <c r="A545" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H545" t="s">
@@ -16418,7 +16405,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+      <c r="A546" s="1" t="s">
         <v>970</v>
       </c>
       <c r="H546" t="s">
@@ -16429,7 +16416,7 @@
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+      <c r="A547" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B547" t="s">
@@ -16458,7 +16445,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="A548" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H548" t="s">
@@ -16469,7 +16456,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>975</v>
       </c>
       <c r="H549" t="s">
@@ -16480,7 +16467,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+      <c r="A550" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B550" t="s">
@@ -16509,7 +16496,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H551" t="s">
@@ -16520,7 +16507,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+      <c r="A552" s="1" t="s">
         <v>980</v>
       </c>
       <c r="H552" t="s">
@@ -16531,7 +16518,7 @@
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+      <c r="A553" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B553" t="s">
@@ -16560,7 +16547,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+      <c r="A554" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H554" t="s">
@@ -16571,7 +16558,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>985</v>
       </c>
       <c r="H555" t="s">
@@ -16582,7 +16569,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B556" t="s">
@@ -16611,7 +16598,7 @@
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+      <c r="A557" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H557" t="s">
@@ -16622,7 +16609,7 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+      <c r="A558" s="1" t="s">
         <v>990</v>
       </c>
       <c r="H558" t="s">
@@ -16633,7 +16620,7 @@
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B559" t="s">
@@ -16662,7 +16649,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+      <c r="A560" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H560" t="s">
@@ -16673,7 +16660,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+      <c r="A561" s="1" t="s">
         <v>995</v>
       </c>
       <c r="H561" t="s">
@@ -16684,7 +16671,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="A562" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B562" t="s">
@@ -16713,7 +16700,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="A563" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H563" t="s">
@@ -16724,7 +16711,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+      <c r="A564" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="H564" t="s">
@@ -16735,7 +16722,7 @@
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="A565" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B565" t="s">
@@ -16764,7 +16751,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+      <c r="A566" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H566" t="s">
@@ -16775,7 +16762,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+      <c r="A567" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="H567" t="s">
@@ -16786,7 +16773,7 @@
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B568" t="s">
@@ -16815,7 +16802,7 @@
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+      <c r="A569" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H569" t="s">
@@ -16826,7 +16813,7 @@
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="H570" t="s">
@@ -16837,7 +16824,7 @@
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+      <c r="A571" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B571" t="s">
@@ -16866,7 +16853,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H572" t="s">
@@ -16877,7 +16864,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+      <c r="A573" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="H573" t="s">
@@ -16888,7 +16875,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B574" t="s">
@@ -16917,7 +16904,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+      <c r="A575" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H575" t="s">
@@ -16928,7 +16915,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+      <c r="A576" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="H576" t="s">
@@ -16939,7 +16926,7 @@
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="A577" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B577" t="s">
@@ -16968,7 +16955,7 @@
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+      <c r="A578" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H578" t="s">
@@ -16979,7 +16966,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+      <c r="A579" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="H579" t="s">
@@ -16990,7 +16977,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+      <c r="A580" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B580" t="s">
@@ -17019,7 +17006,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+      <c r="A581" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H581" t="s">
@@ -17030,7 +17017,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="H582" t="s">
@@ -17041,7 +17028,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+      <c r="A583" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B583" t="s">
@@ -17070,7 +17057,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="A584" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H584" t="s">
@@ -17081,7 +17068,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="A585" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="H585" t="s">
@@ -17092,7 +17079,7 @@
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B586" t="s">
@@ -17121,7 +17108,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+      <c r="A587" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H587" t="s">
@@ -17132,7 +17119,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+      <c r="A588" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="H588" t="s">
@@ -17143,7 +17130,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+      <c r="A589" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B589" t="s">
@@ -17172,7 +17159,7 @@
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="A590" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H590" t="s">
@@ -17183,7 +17170,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+      <c r="A591" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="H591" t="s">
@@ -17194,7 +17181,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="A592" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B592" t="s">
@@ -17223,7 +17210,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+      <c r="A593" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H593" t="s">
@@ -17234,7 +17221,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+      <c r="A594" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="H594" t="s">
@@ -17245,7 +17232,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+      <c r="A595" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B595" t="s">
@@ -17274,7 +17261,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H596" t="s">
@@ -17285,7 +17272,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+      <c r="A597" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="H597" t="s">
@@ -17296,7 +17283,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+      <c r="A598" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B598" t="s">
@@ -17322,7 +17309,7 @@
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+      <c r="A599" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H599" t="s">
@@ -17333,7 +17320,7 @@
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="A600" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="H600" t="s">
@@ -17344,7 +17331,7 @@
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+      <c r="A601" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B601" t="s">
@@ -17373,7 +17360,7 @@
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+      <c r="A602" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H602" t="s">
@@ -17384,7 +17371,7 @@
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="A603" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="H603" t="s">
@@ -17395,7 +17382,7 @@
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="A604" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B604" t="s">
@@ -17424,7 +17411,7 @@
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+      <c r="A605" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H605" t="s">
@@ -17435,7 +17422,7 @@
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+      <c r="A606" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="H606" t="s">
@@ -17446,7 +17433,7 @@
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+      <c r="A607" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B607" t="s">
@@ -17472,7 +17459,7 @@
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+      <c r="A608" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H608" t="s">
@@ -17483,7 +17470,7 @@
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+      <c r="A609" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="H609" t="s">
@@ -17494,7 +17481,7 @@
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+      <c r="A610" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B610" t="s">
@@ -17520,7 +17507,7 @@
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+      <c r="A611" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H611" t="s">
@@ -17531,7 +17518,7 @@
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+      <c r="A612" s="1" t="s">
         <v>267</v>
       </c>
       <c r="H612" t="s">
@@ -17542,7 +17529,7 @@
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+      <c r="A613" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B613" t="s">
@@ -17571,7 +17558,7 @@
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+      <c r="A614" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B614" t="s">
@@ -17600,7 +17587,7 @@
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+      <c r="A615" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H615" t="s">
@@ -17611,7 +17598,7 @@
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+      <c r="A616" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="H616" t="s">
@@ -17622,7 +17609,7 @@
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+      <c r="A617" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B617" t="s">
@@ -17651,7 +17638,7 @@
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+      <c r="A618" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H618" t="s">
@@ -17662,7 +17649,7 @@
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+      <c r="A619" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="H619" t="s">
@@ -17673,7 +17660,7 @@
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+      <c r="A620" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B620" t="s">
@@ -17702,7 +17689,7 @@
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+      <c r="A621" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H621" t="s">
@@ -17713,7 +17700,7 @@
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+      <c r="A622" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="H622" t="s">
@@ -17724,7 +17711,7 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+      <c r="A623" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B623" t="s">
@@ -17750,7 +17737,7 @@
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+      <c r="A624" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H624" t="s">
@@ -17761,7 +17748,7 @@
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="A625" s="1" t="s">
         <v>275</v>
       </c>
       <c r="H625" t="s">
@@ -17772,7 +17759,7 @@
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="A626" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B626" t="s">
@@ -17801,7 +17788,7 @@
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="A627" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B627" t="s">
@@ -17830,7 +17817,7 @@
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+      <c r="A628" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B628" t="s">
@@ -17859,7 +17846,7 @@
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+      <c r="A629" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H629" t="s">
@@ -17870,7 +17857,7 @@
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="H630" t="s">
@@ -17881,7 +17868,7 @@
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+      <c r="A631" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B631" t="s">
@@ -17907,7 +17894,7 @@
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="A632" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H632" t="s">
@@ -17918,7 +17905,7 @@
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+      <c r="A633" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="H633" t="s">
@@ -17929,7 +17916,7 @@
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+      <c r="A634" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B634" t="s">
@@ -17958,7 +17945,7 @@
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+      <c r="A635" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H635" t="s">
@@ -17969,7 +17956,7 @@
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+      <c r="A636" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="H636" t="s">
@@ -17980,7 +17967,7 @@
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B637" t="s">
@@ -18006,7 +17993,7 @@
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+      <c r="A638" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H638" t="s">
@@ -18017,7 +18004,7 @@
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+      <c r="A639" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="H639" t="s">
@@ -18028,7 +18015,7 @@
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+      <c r="A640" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B640" t="s">
@@ -18057,7 +18044,7 @@
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+      <c r="A641" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H641" t="s">
@@ -18068,7 +18055,7 @@
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+      <c r="A642" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="H642" t="s">
@@ -18079,7 +18066,7 @@
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+      <c r="A643" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B643" t="s">
@@ -18108,7 +18095,7 @@
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+      <c r="A644" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H644" t="s">
@@ -18119,7 +18106,7 @@
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="A645" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="H645" t="s">
@@ -18130,7 +18117,7 @@
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+      <c r="A646" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B646" t="s">
@@ -18156,7 +18143,7 @@
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+      <c r="A647" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H647" t="s">
@@ -18167,7 +18154,7 @@
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+      <c r="A648" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="H648" t="s">
@@ -18178,7 +18165,7 @@
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+      <c r="A649" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B649" t="s">
@@ -18204,7 +18191,7 @@
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+      <c r="A650" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H650" t="s">
@@ -18215,7 +18202,7 @@
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+      <c r="A651" s="1" t="s">
         <v>1130</v>
       </c>
       <c r="H651" t="s">
@@ -18226,7 +18213,7 @@
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+      <c r="A652" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B652" t="s">
@@ -18255,7 +18242,7 @@
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+      <c r="A653" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H653" t="s">
@@ -18266,7 +18253,7 @@
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+      <c r="A654" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="H654" t="s">
@@ -18277,7 +18264,7 @@
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+      <c r="A655" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B655" t="s">
@@ -18303,7 +18290,7 @@
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+      <c r="A656" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H656" t="s">
@@ -18315,18 +18302,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B1=""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$C1=""</formula>
+    <cfRule type="expression" priority="2" stopIfTrue="1">
+      <formula>C1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FERT_results.xlsx
+++ b/FERT_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28530" windowHeight="16395"/>
   </bookViews>
   <sheets>
-    <sheet name="group size &gt; 1" sheetId="1" r:id="rId1"/>
-    <sheet name="all groups" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="group size &gt; 1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="all groups" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -3440,19 +3440,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3486,27 +3486,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i/>
       </font>
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3788,12 +3786,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" hidden="1" customWidth="1"/>
@@ -3806,31 +3804,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6751,22 +6749,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -6774,12 +6772,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I656"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" hidden="1" customWidth="1"/>
@@ -6788,35 +6786,35 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -18302,16 +18300,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" priority="2" stopIfTrue="1">
+    <cfRule type="expression" priority="5">
       <formula>C1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>